--- a/src/av_issues.xlsx
+++ b/src/av_issues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\circ8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\circ8\Documents\Chris\GitHub Repositories\library-av-app\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A6CBD088-EB19-4491-A5C5-4DF03A0EED15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12559FD-B22A-4F45-9B2B-02048A3CA84D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16950" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16950" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="av_issues" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="200">
   <si>
     <t>input-date</t>
   </si>
@@ -617,12 +617,15 @@
   </si>
   <si>
     <t>Brenda Kay Barton</t>
+  </si>
+  <si>
+    <t>put cord and brick in case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1451,11 +1454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2818,8 +2821,11 @@
       <c r="K50" s="3">
         <v>20080109075513</v>
       </c>
+      <c r="M50" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="N50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3070,8 +3076,11 @@
       <c r="K59" s="3">
         <v>20080109302826</v>
       </c>
+      <c r="M59" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="N59" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/av_issues.xlsx
+++ b/src/av_issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\circ8\Documents\Chris\GitHub Repositories\library-av-app\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12559FD-B22A-4F45-9B2B-02048A3CA84D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED65F9CE-0F1A-4FFD-92E5-7D715AB8EC68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16950" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1455,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3181,46 +3181,6 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>45652</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
